--- a/logFile_analysis 29052016.xlsx
+++ b/logFile_analysis 29052016.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="logFile_analysis 29052016" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -589,6 +589,2960 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.21946587926509187"/>
+                  <c:y val="0.2449537037037037"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-ES"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'logFile_analysis 29052016'!$C$2:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>640</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-96CB-4220-AD11-2A2ACFD6D7F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="328745032"/>
+        <c:axId val="328745360"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="328745032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="328745360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="328745360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="328745032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.8121391076115483E-2"/>
+                  <c:y val="-0.38915500145815107"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-ES"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'logFile_analysis 29052016'!$E$2:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23529411764705882</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.17647058823529413</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16326530612244897</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.10377358490566038</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.5949367088607597E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.2761506276150625E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.0515653775322284E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1515151515151517E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.4661893396976928E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9801980198019802E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5635622025832768E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2381162944948043E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.7715188963931592E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.6229431997768896E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.0070883642698381E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.8455246734116367E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.7904291663549538E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.9987171263630534E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.3156486389131889E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.8471119085943478E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.448595959979897E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.1425021607605877E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.9894231930569214E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.0461999513371813E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8550-420F-A0DA-0CA1ACC859A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="397351232"/>
+        <c:axId val="397351560"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="397351232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397351560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="397351560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397351232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="5"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12332327209098863"/>
+                  <c:y val="9.4833770778652668E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-ES"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'logFile_analysis 29052016'!$F$2:$F$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>694</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>882</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1122</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1428</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1816</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2938</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3738</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4754</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B08-4EB4-9268-FC7447AF9E3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="397697016"/>
+        <c:axId val="397697672"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="397697016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397697672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="397697672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397697016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -886,19 +3840,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -911,20 +3874,20 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -938,23 +3901,27 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <f>C2/D2</f>
+        <v>0.5</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2">
         <v>0.61998842592592596</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>42519</v>
       </c>
-      <c r="I2" s="3">
-        <f>(HOUR(G2)*3600)+(MINUTE(G2)*60)+SECOND(G2)</f>
+      <c r="J2" s="3">
+        <f>(HOUR(H2)*3600)+(MINUTE(H2)*60)+SECOND(H2)</f>
         <v>53567</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -968,27 +3935,31 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <f t="shared" ref="E3:E35" si="0">C3/D3</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2">
         <v>0.61998842592592596</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>42519</v>
       </c>
-      <c r="I3" s="3">
-        <f t="shared" ref="I3:I35" si="0">(HOUR(G3)*3600)+(MINUTE(G3)*60)+SECOND(G3)</f>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J35" si="1">(HOUR(H3)*3600)+(MINUTE(H3)*60)+SECOND(H3)</f>
         <v>53567</v>
       </c>
-      <c r="J3" s="3">
-        <f>I3-I2</f>
+      <c r="K3" s="3">
+        <f>J3-J2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -1002,27 +3973,31 @@
         <v>4</v>
       </c>
       <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>5</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>0.62032407407407408</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>42519</v>
       </c>
-      <c r="I4" s="3">
-        <f t="shared" si="0"/>
+      <c r="J4" s="3">
+        <f t="shared" si="1"/>
         <v>53596</v>
       </c>
-      <c r="J4" s="3">
-        <f t="shared" ref="J4:J35" si="1">I4-I3</f>
+      <c r="K4" s="3">
+        <f t="shared" ref="K4:K35" si="2">J4-J3</f>
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
@@ -1036,27 +4011,31 @@
         <v>5</v>
       </c>
       <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="F5">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>7</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>0.62032407407407408</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>42519</v>
-      </c>
-      <c r="I5" s="3">
-        <f t="shared" si="0"/>
-        <v>53596</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" si="1"/>
+        <v>53596</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>11</v>
       </c>
@@ -1070,27 +4049,31 @@
         <v>7</v>
       </c>
       <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>11</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>0.62032407407407408</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>42519</v>
-      </c>
-      <c r="I6" s="3">
-        <f t="shared" si="0"/>
-        <v>53596</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="1"/>
+        <v>53596</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>17</v>
       </c>
@@ -1104,27 +4087,31 @@
         <v>9</v>
       </c>
       <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F7">
         <v>6</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>17</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>0.62032407407407408</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>42519</v>
-      </c>
-      <c r="I7" s="3">
-        <f t="shared" si="0"/>
-        <v>53596</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" si="1"/>
+        <v>53596</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>23</v>
       </c>
@@ -1138,27 +4125,31 @@
         <v>12</v>
       </c>
       <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F8">
         <v>8</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>23</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>0.62032407407407408</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>42519</v>
-      </c>
-      <c r="I8" s="3">
-        <f t="shared" si="0"/>
-        <v>53596</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="1"/>
+        <v>53596</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>37</v>
       </c>
@@ -1172,27 +4163,31 @@
         <v>17</v>
       </c>
       <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="F9">
         <v>10</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>37</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>0.62032407407407408</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>42519</v>
-      </c>
-      <c r="I9" s="3">
-        <f t="shared" si="0"/>
-        <v>53596</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="1"/>
+        <v>53596</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>59</v>
       </c>
@@ -1206,27 +4201,31 @@
         <v>24</v>
       </c>
       <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F10">
         <v>12</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>59</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>0.62032407407407408</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>42519</v>
-      </c>
-      <c r="I10" s="3">
-        <f t="shared" si="0"/>
-        <v>53596</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="1"/>
+        <v>53596</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>89</v>
       </c>
@@ -1240,27 +4239,31 @@
         <v>34</v>
       </c>
       <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="F11">
         <v>15</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>89</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>0.62032407407407408</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>42519</v>
-      </c>
-      <c r="I11" s="3">
-        <f t="shared" si="0"/>
-        <v>53596</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="1"/>
+        <v>53596</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>139</v>
       </c>
@@ -1274,27 +4277,31 @@
         <v>49</v>
       </c>
       <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.16326530612244897</v>
+      </c>
+      <c r="F12">
         <v>19</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>139</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>0.62032407407407408</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>42519</v>
-      </c>
-      <c r="I12" s="3">
-        <f t="shared" si="0"/>
-        <v>53596</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="1"/>
+        <v>53596</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>227</v>
       </c>
@@ -1308,27 +4315,31 @@
         <v>72</v>
       </c>
       <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="F13">
         <v>24</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>227</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>0.62032407407407408</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>42519</v>
-      </c>
-      <c r="I13" s="3">
-        <f t="shared" si="0"/>
-        <v>53596</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="1"/>
+        <v>53596</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>359</v>
       </c>
@@ -1342,27 +4353,31 @@
         <v>106</v>
       </c>
       <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.10377358490566038</v>
+      </c>
+      <c r="F14">
         <v>31</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>359</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>0.62032407407407408</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>42519</v>
-      </c>
-      <c r="I14" s="3">
-        <f t="shared" si="0"/>
-        <v>53596</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="1"/>
+        <v>53596</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>577</v>
       </c>
@@ -1376,27 +4391,31 @@
         <v>158</v>
       </c>
       <c r="E15">
+        <f t="shared" si="0"/>
+        <v>7.5949367088607597E-2</v>
+      </c>
+      <c r="F15">
         <v>39</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>577</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>0.62032407407407408</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>42519</v>
-      </c>
-      <c r="I15" s="3">
-        <f t="shared" si="0"/>
-        <v>53596</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="1"/>
+        <v>53596</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>929</v>
       </c>
@@ -1410,27 +4429,31 @@
         <v>239</v>
       </c>
       <c r="E16">
+        <f t="shared" si="0"/>
+        <v>6.2761506276150625E-2</v>
+      </c>
+      <c r="F16">
         <v>49</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>929</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>0.62032407407407408</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>42519</v>
-      </c>
-      <c r="I16" s="3">
-        <f t="shared" si="0"/>
-        <v>53596</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="1"/>
+        <v>53596</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1499</v>
       </c>
@@ -1444,27 +4467,31 @@
         <v>360</v>
       </c>
       <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="F17">
         <v>63</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1499</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <v>0.62093750000000003</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>42519</v>
-      </c>
-      <c r="I17" s="3">
-        <f t="shared" si="0"/>
-        <v>53649</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="1"/>
+        <v>53649</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2423</v>
       </c>
@@ -1478,27 +4505,31 @@
         <v>543</v>
       </c>
       <c r="E18">
+        <f t="shared" si="0"/>
+        <v>4.0515653775322284E-2</v>
+      </c>
+      <c r="F18">
         <v>80</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>2423</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H18" s="2">
         <v>0.62093750000000003</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>42519</v>
-      </c>
-      <c r="I18" s="3">
-        <f t="shared" si="0"/>
-        <v>53649</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="1"/>
+        <v>53649</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3919</v>
       </c>
@@ -1512,27 +4543,31 @@
         <v>825</v>
       </c>
       <c r="E19">
+        <f t="shared" si="0"/>
+        <v>3.1515151515151517E-2</v>
+      </c>
+      <c r="F19">
         <v>101</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>3919</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H19" s="2">
         <v>0.62094907407407407</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>42519</v>
-      </c>
-      <c r="I19" s="3">
-        <f t="shared" si="0"/>
-        <v>53650</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="1"/>
+        <v>53650</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6337</v>
       </c>
@@ -1546,27 +4581,31 @@
         <v>1257</v>
       </c>
       <c r="E20">
+        <f t="shared" si="0"/>
+        <v>2.4661893396976928E-2</v>
+      </c>
+      <c r="F20">
         <v>129</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>6337</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H20" s="2">
         <v>0.62094907407407407</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>42519</v>
-      </c>
-      <c r="I20" s="3">
-        <f t="shared" si="0"/>
-        <v>53650</v>
       </c>
       <c r="J20" s="3">
         <f t="shared" si="1"/>
+        <v>53650</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10253</v>
       </c>
@@ -1580,27 +4619,31 @@
         <v>1919</v>
       </c>
       <c r="E21">
+        <f t="shared" si="0"/>
+        <v>1.9801980198019802E-2</v>
+      </c>
+      <c r="F21">
         <v>164</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>10253</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H21" s="2">
         <v>0.6215046296296296</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>42519</v>
-      </c>
-      <c r="I21" s="3">
-        <f t="shared" si="0"/>
-        <v>53698</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" si="1"/>
+        <v>53698</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16573</v>
       </c>
@@ -1614,27 +4657,31 @@
         <v>2942</v>
       </c>
       <c r="E22">
+        <f t="shared" si="0"/>
+        <v>1.5635622025832768E-2</v>
+      </c>
+      <c r="F22">
         <v>208</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>16573</v>
       </c>
-      <c r="G22" s="2">
+      <c r="H22" s="2">
         <v>0.62151620370370375</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <v>42519</v>
-      </c>
-      <c r="I22" s="3">
-        <f t="shared" si="0"/>
-        <v>53699</v>
       </c>
       <c r="J22" s="3">
         <f t="shared" si="1"/>
+        <v>53699</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>26821</v>
       </c>
@@ -1648,27 +4695,31 @@
         <v>4523</v>
       </c>
       <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1.2381162944948043E-2</v>
+      </c>
+      <c r="F23">
         <v>265</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>26821</v>
       </c>
-      <c r="G23" s="2">
+      <c r="H23" s="2">
         <v>0.62152777777777779</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <v>42519</v>
-      </c>
-      <c r="I23" s="3">
-        <f t="shared" si="0"/>
-        <v>53700</v>
       </c>
       <c r="J23" s="3">
         <f t="shared" si="1"/>
+        <v>53700</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>43391</v>
       </c>
@@ -1682,27 +4733,31 @@
         <v>6959</v>
       </c>
       <c r="E24">
+        <f t="shared" si="0"/>
+        <v>9.7715188963931592E-3</v>
+      </c>
+      <c r="F24">
         <v>337</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>43391</v>
       </c>
-      <c r="G24" s="2">
+      <c r="H24" s="2">
         <v>0.62156250000000002</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <v>42519</v>
-      </c>
-      <c r="I24" s="3">
-        <f t="shared" si="0"/>
-        <v>53703</v>
       </c>
       <c r="J24" s="3">
         <f t="shared" si="1"/>
+        <v>53703</v>
+      </c>
+      <c r="K24" s="3">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>70207</v>
       </c>
@@ -1716,27 +4771,31 @@
         <v>10757</v>
       </c>
       <c r="E25">
+        <f t="shared" si="0"/>
+        <v>7.6229431997768896E-3</v>
+      </c>
+      <c r="F25">
         <v>429</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>70207</v>
       </c>
-      <c r="G25" s="2">
+      <c r="H25" s="2">
         <v>0.62163194444444447</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I25" s="1">
         <v>42519</v>
-      </c>
-      <c r="I25" s="3">
-        <f t="shared" si="0"/>
-        <v>53709</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="1"/>
+        <v>53709</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>113591</v>
       </c>
@@ -1750,27 +4809,31 @@
         <v>16647</v>
       </c>
       <c r="E26">
+        <f t="shared" si="0"/>
+        <v>6.0070883642698381E-3</v>
+      </c>
+      <c r="F26">
         <v>545</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>113591</v>
       </c>
-      <c r="G26" s="2">
+      <c r="H26" s="2">
         <v>0.62178240740740742</v>
       </c>
-      <c r="H26" s="1">
+      <c r="I26" s="1">
         <v>42519</v>
-      </c>
-      <c r="I26" s="3">
-        <f t="shared" si="0"/>
-        <v>53722</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="1"/>
+        <v>53722</v>
+      </c>
+      <c r="K26" s="3">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>183797</v>
       </c>
@@ -1784,27 +4847,31 @@
         <v>25797</v>
       </c>
       <c r="E27">
+        <f t="shared" si="0"/>
+        <v>4.8455246734116367E-3</v>
+      </c>
+      <c r="F27">
         <v>694</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>183797</v>
       </c>
-      <c r="G27" s="2">
+      <c r="H27" s="2">
         <v>0.62201388888888887</v>
       </c>
-      <c r="H27" s="1">
+      <c r="I27" s="1">
         <v>42519</v>
-      </c>
-      <c r="I27" s="3">
-        <f t="shared" si="0"/>
-        <v>53742</v>
       </c>
       <c r="J27" s="3">
         <f t="shared" si="1"/>
+        <v>53742</v>
+      </c>
+      <c r="K27" s="3">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>297377</v>
       </c>
@@ -1818,27 +4885,31 @@
         <v>40101</v>
       </c>
       <c r="E28">
+        <f t="shared" si="0"/>
+        <v>3.7904291663549538E-3</v>
+      </c>
+      <c r="F28">
         <v>882</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>297377</v>
       </c>
-      <c r="G28" s="2">
+      <c r="H28" s="2">
         <v>0.62245370370370368</v>
       </c>
-      <c r="H28" s="1">
+      <c r="I28" s="1">
         <v>42519</v>
-      </c>
-      <c r="I28" s="3">
-        <f t="shared" si="0"/>
-        <v>53780</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" si="1"/>
+        <v>53780</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>481171</v>
       </c>
@@ -1852,27 +4923,31 @@
         <v>62360</v>
       </c>
       <c r="E29">
+        <f t="shared" si="0"/>
+        <v>2.9987171263630534E-3</v>
+      </c>
+      <c r="F29">
         <v>1122</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>481171</v>
       </c>
-      <c r="G29" s="2">
+      <c r="H29" s="2">
         <v>0.62331018518518522</v>
       </c>
-      <c r="H29" s="1">
+      <c r="I29" s="1">
         <v>42519</v>
-      </c>
-      <c r="I29" s="3">
-        <f t="shared" si="0"/>
-        <v>53854</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="1"/>
+        <v>53854</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>778541</v>
       </c>
@@ -1886,27 +4961,31 @@
         <v>97165</v>
       </c>
       <c r="E30">
+        <f t="shared" si="0"/>
+        <v>2.3156486389131889E-3</v>
+      </c>
+      <c r="F30">
         <v>1428</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>778541</v>
       </c>
-      <c r="G30" s="2">
+      <c r="H30" s="2">
         <v>0.62494212962962969</v>
       </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
         <v>42519</v>
-      </c>
-      <c r="I30" s="3">
-        <f t="shared" si="0"/>
-        <v>53995</v>
       </c>
       <c r="J30" s="3">
         <f t="shared" si="1"/>
+        <v>53995</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="2"/>
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1259701</v>
       </c>
@@ -1920,27 +4999,31 @@
         <v>151588</v>
       </c>
       <c r="E31">
+        <f t="shared" si="0"/>
+        <v>1.8471119085943478E-3</v>
+      </c>
+      <c r="F31">
         <v>1816</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>1259701</v>
       </c>
-      <c r="G31" s="2">
+      <c r="H31" s="2">
         <v>0.62798611111111113</v>
       </c>
-      <c r="H31" s="1">
+      <c r="I31" s="1">
         <v>42519</v>
-      </c>
-      <c r="I31" s="3">
-        <f t="shared" si="0"/>
-        <v>54258</v>
       </c>
       <c r="J31" s="3">
         <f t="shared" si="1"/>
+        <v>54258</v>
+      </c>
+      <c r="K31" s="3">
+        <f t="shared" si="2"/>
         <v>263</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2038217</v>
       </c>
@@ -1954,27 +5037,31 @@
         <v>236781</v>
       </c>
       <c r="E32">
+        <f t="shared" si="0"/>
+        <v>1.448595959979897E-3</v>
+      </c>
+      <c r="F32">
         <v>2310</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>2038217</v>
       </c>
-      <c r="G32" s="2">
+      <c r="H32" s="2">
         <v>0.63369212962962962</v>
       </c>
-      <c r="H32" s="1">
+      <c r="I32" s="1">
         <v>42519</v>
-      </c>
-      <c r="I32" s="3">
-        <f t="shared" si="0"/>
-        <v>54751</v>
       </c>
       <c r="J32" s="3">
         <f t="shared" si="1"/>
+        <v>54751</v>
+      </c>
+      <c r="K32" s="3">
+        <f t="shared" si="2"/>
         <v>493</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3297913</v>
       </c>
@@ -1988,27 +5075,31 @@
         <v>370240</v>
       </c>
       <c r="E33">
+        <f t="shared" si="0"/>
+        <v>1.1425021607605877E-3</v>
+      </c>
+      <c r="F33">
         <v>2938</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>3297913</v>
       </c>
-      <c r="G33" s="2">
+      <c r="H33" s="2">
         <v>0.64124999999999999</v>
       </c>
-      <c r="H33" s="1">
+      <c r="I33" s="1">
         <v>42519</v>
-      </c>
-      <c r="I33" s="3">
-        <f t="shared" si="0"/>
-        <v>55404</v>
       </c>
       <c r="J33" s="3">
         <f t="shared" si="1"/>
+        <v>55404</v>
+      </c>
+      <c r="K33" s="3">
+        <f t="shared" si="2"/>
         <v>653</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5336129</v>
       </c>
@@ -2022,27 +5113,31 @@
         <v>579570</v>
       </c>
       <c r="E34">
+        <f t="shared" si="0"/>
+        <v>8.9894231930569214E-4</v>
+      </c>
+      <c r="F34">
         <v>3738</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>5336129</v>
       </c>
-      <c r="G34" s="2">
+      <c r="H34" s="2">
         <v>0.65187499999999998</v>
       </c>
-      <c r="H34" s="1">
+      <c r="I34" s="1">
         <v>42519</v>
-      </c>
-      <c r="I34" s="3">
-        <f t="shared" si="0"/>
-        <v>56322</v>
       </c>
       <c r="J34" s="3">
         <f t="shared" si="1"/>
+        <v>56322</v>
+      </c>
+      <c r="K34" s="3">
+        <f t="shared" si="2"/>
         <v>918</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>8633983</v>
       </c>
@@ -2056,46 +5151,33 @@
         <v>908291</v>
       </c>
       <c r="E35">
+        <f t="shared" si="0"/>
+        <v>7.0461999513371813E-4</v>
+      </c>
+      <c r="F35">
         <v>4754</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>8633983</v>
       </c>
-      <c r="G35" s="2">
+      <c r="H35" s="2">
         <v>0.67302083333333329</v>
       </c>
-      <c r="H35" s="1">
+      <c r="I35" s="1">
         <v>42519</v>
-      </c>
-      <c r="I35" s="3">
-        <f t="shared" si="0"/>
-        <v>58149</v>
       </c>
       <c r="J35" s="3">
         <f t="shared" si="1"/>
+        <v>58149</v>
+      </c>
+      <c r="K35" s="3">
+        <f t="shared" si="2"/>
         <v>1827</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I36" s="3">
-        <f>+I35-I2</f>
-        <v>4582</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I37" s="3">
-        <f>+I36/3600</f>
-        <v>1.2727777777777778</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I38" s="3">
-        <f>(I36-3600)/60</f>
-        <v>16.366666666666667</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/logFile_analysis 29052016.xlsx
+++ b/logFile_analysis 29052016.xlsx
@@ -1501,7 +1501,7 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>'logFile_analysis 29052016'!$F$2:$F$36</c:f>
+              <c:f>'logFile_analysis 29052016'!$H$2:$H$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -3452,13 +3452,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -3482,13 +3482,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>319087</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>319087</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -3512,13 +3512,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>309562</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>309562</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -3840,10 +3840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3852,16 +3852,17 @@
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3874,20 +3875,20 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3904,24 +3905,27 @@
         <f>C2/D2</f>
         <v>0.5</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>2</v>
       </c>
-      <c r="G2">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="H2" s="2">
+      <c r="L2" s="2">
         <v>0.61998842592592596</v>
       </c>
-      <c r="I2" s="1">
+      <c r="M2" s="1">
         <v>42519</v>
       </c>
-      <c r="J2" s="3">
-        <f>(HOUR(H2)*3600)+(MINUTE(H2)*60)+SECOND(H2)</f>
+      <c r="N2" s="3">
+        <f>(HOUR(L2)*3600)+(MINUTE(L2)*60)+SECOND(L2)</f>
         <v>53567</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3939,27 +3943,34 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F3">
+        <f>+E2-E3</f>
+        <v>-0.16666666666666663</v>
+      </c>
+      <c r="H3">
         <v>3</v>
       </c>
-      <c r="G3">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>3</v>
       </c>
-      <c r="H3" s="2">
+      <c r="L3" s="2">
         <v>0.61998842592592596</v>
       </c>
-      <c r="I3" s="1">
+      <c r="M3" s="1">
         <v>42519</v>
       </c>
-      <c r="J3" s="3">
-        <f t="shared" ref="J3:J35" si="1">(HOUR(H3)*3600)+(MINUTE(H3)*60)+SECOND(H3)</f>
+      <c r="N3" s="3">
+        <f t="shared" ref="N3:N35" si="1">(HOUR(L3)*3600)+(MINUTE(L3)*60)+SECOND(L3)</f>
         <v>53567</v>
       </c>
-      <c r="K3" s="3">
-        <f>J3-J2</f>
+      <c r="O3" s="3">
+        <f>N3-N2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -3977,27 +3988,35 @@
         <v>0.5</v>
       </c>
       <c r="F4">
+        <f t="shared" ref="F4:F35" si="2">+E3-E4</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="G4">
+      <c r="I4">
+        <f t="shared" ref="I4:I6" si="3">I5-0.06</f>
+        <v>0.75999999999999979</v>
+      </c>
+      <c r="K4">
         <v>5</v>
       </c>
-      <c r="H4" s="2">
+      <c r="L4" s="2">
         <v>0.62032407407407408</v>
       </c>
-      <c r="I4" s="1">
+      <c r="M4" s="1">
         <v>42519</v>
       </c>
-      <c r="J4" s="3">
+      <c r="N4" s="3">
         <f t="shared" si="1"/>
         <v>53596</v>
       </c>
-      <c r="K4" s="3">
-        <f t="shared" ref="K4:K35" si="2">J4-J3</f>
+      <c r="O4" s="3">
+        <f t="shared" ref="O4:O35" si="4">N4-N3</f>
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
@@ -4015,27 +4034,35 @@
         <v>0.4</v>
       </c>
       <c r="F5">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="G5">
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>0.81999999999999984</v>
+      </c>
+      <c r="K5">
         <v>7</v>
       </c>
-      <c r="H5" s="2">
+      <c r="L5" s="2">
         <v>0.62032407407407408</v>
       </c>
-      <c r="I5" s="1">
+      <c r="M5" s="1">
         <v>42519</v>
       </c>
-      <c r="J5" s="3">
+      <c r="N5" s="3">
         <f t="shared" si="1"/>
         <v>53596</v>
       </c>
-      <c r="K5" s="3">
-        <f t="shared" si="2"/>
+      <c r="O5" s="3">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>11</v>
       </c>
@@ -4053,27 +4080,35 @@
         <v>0.42857142857142855</v>
       </c>
       <c r="F6">
+        <f t="shared" si="2"/>
+        <v>-2.8571428571428525E-2</v>
+      </c>
+      <c r="H6">
         <v>5</v>
       </c>
-      <c r="G6">
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>0.87999999999999989</v>
+      </c>
+      <c r="K6">
         <v>11</v>
       </c>
-      <c r="H6" s="2">
+      <c r="L6" s="2">
         <v>0.62032407407407408</v>
       </c>
-      <c r="I6" s="1">
+      <c r="M6" s="1">
         <v>42519</v>
       </c>
-      <c r="J6" s="3">
+      <c r="N6" s="3">
         <f t="shared" si="1"/>
         <v>53596</v>
       </c>
-      <c r="K6" s="3">
-        <f t="shared" si="2"/>
+      <c r="O6" s="3">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>17</v>
       </c>
@@ -4091,27 +4126,35 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="F7">
+        <f t="shared" si="2"/>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="H7">
         <v>6</v>
       </c>
-      <c r="G7">
+      <c r="I7">
+        <f>I8-0.06</f>
+        <v>0.94</v>
+      </c>
+      <c r="K7">
         <v>17</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>0.62032407407407408</v>
       </c>
-      <c r="I7" s="1">
+      <c r="M7" s="1">
         <v>42519</v>
       </c>
-      <c r="J7" s="3">
+      <c r="N7" s="3">
         <f t="shared" si="1"/>
         <v>53596</v>
       </c>
-      <c r="K7" s="3">
-        <f t="shared" si="2"/>
+      <c r="O7" s="3">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>23</v>
       </c>
@@ -4129,27 +4172,39 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="F8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>8</v>
       </c>
-      <c r="G8">
+      <c r="I8">
+        <f>0.94+0.06</f>
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <f>ROUND(D8*0.5,0)-ROUND(D8*(0.15*I8),0)</f>
+        <v>4</v>
+      </c>
+      <c r="K8">
         <v>23</v>
       </c>
-      <c r="H8" s="2">
+      <c r="L8" s="2">
         <v>0.62032407407407408</v>
       </c>
-      <c r="I8" s="1">
+      <c r="M8" s="1">
         <v>42519</v>
       </c>
-      <c r="J8" s="3">
+      <c r="N8" s="3">
         <f t="shared" si="1"/>
         <v>53596</v>
       </c>
-      <c r="K8" s="3">
-        <f t="shared" si="2"/>
+      <c r="O8" s="3">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>37</v>
       </c>
@@ -4167,27 +4222,39 @@
         <v>0.23529411764705882</v>
       </c>
       <c r="F9">
+        <f t="shared" si="2"/>
+        <v>9.8039215686274495E-2</v>
+      </c>
+      <c r="H9">
         <v>10</v>
       </c>
-      <c r="G9">
+      <c r="I9">
+        <f>+I8+0.06</f>
+        <v>1.06</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9:J35" si="5">ROUND(D9*0.5,0)-ROUND(D9*(0.15*I9),0)</f>
+        <v>6</v>
+      </c>
+      <c r="K9">
         <v>37</v>
       </c>
-      <c r="H9" s="2">
+      <c r="L9" s="2">
         <v>0.62032407407407408</v>
       </c>
-      <c r="I9" s="1">
+      <c r="M9" s="1">
         <v>42519</v>
       </c>
-      <c r="J9" s="3">
+      <c r="N9" s="3">
         <f t="shared" si="1"/>
         <v>53596</v>
       </c>
-      <c r="K9" s="3">
-        <f t="shared" si="2"/>
+      <c r="O9" s="3">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>59</v>
       </c>
@@ -4205,27 +4272,39 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="F10">
+        <f t="shared" si="2"/>
+        <v>2.6960784313725478E-2</v>
+      </c>
+      <c r="H10">
         <v>12</v>
       </c>
-      <c r="G10">
+      <c r="I10">
+        <f t="shared" ref="I10:I35" si="6">+I9+0.06</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="K10">
         <v>59</v>
       </c>
-      <c r="H10" s="2">
+      <c r="L10" s="2">
         <v>0.62032407407407408</v>
       </c>
-      <c r="I10" s="1">
+      <c r="M10" s="1">
         <v>42519</v>
       </c>
-      <c r="J10" s="3">
+      <c r="N10" s="3">
         <f t="shared" si="1"/>
         <v>53596</v>
       </c>
-      <c r="K10" s="3">
-        <f t="shared" si="2"/>
+      <c r="O10" s="3">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>89</v>
       </c>
@@ -4243,27 +4322,39 @@
         <v>0.17647058823529413</v>
       </c>
       <c r="F11">
+        <f t="shared" si="2"/>
+        <v>3.1862745098039214E-2</v>
+      </c>
+      <c r="H11">
         <v>15</v>
       </c>
-      <c r="G11">
+      <c r="I11">
+        <f t="shared" si="6"/>
+        <v>1.1800000000000002</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="K11">
         <v>89</v>
       </c>
-      <c r="H11" s="2">
+      <c r="L11" s="2">
         <v>0.62032407407407408</v>
       </c>
-      <c r="I11" s="1">
+      <c r="M11" s="1">
         <v>42519</v>
       </c>
-      <c r="J11" s="3">
+      <c r="N11" s="3">
         <f t="shared" si="1"/>
         <v>53596</v>
       </c>
-      <c r="K11" s="3">
-        <f t="shared" si="2"/>
+      <c r="O11" s="3">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>139</v>
       </c>
@@ -4281,27 +4372,39 @@
         <v>0.16326530612244897</v>
       </c>
       <c r="F12">
+        <f t="shared" si="2"/>
+        <v>1.3205282112845163E-2</v>
+      </c>
+      <c r="H12">
         <v>19</v>
       </c>
-      <c r="G12">
+      <c r="I12">
+        <f t="shared" si="6"/>
+        <v>1.2400000000000002</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="K12">
         <v>139</v>
       </c>
-      <c r="H12" s="2">
+      <c r="L12" s="2">
         <v>0.62032407407407408</v>
       </c>
-      <c r="I12" s="1">
+      <c r="M12" s="1">
         <v>42519</v>
       </c>
-      <c r="J12" s="3">
+      <c r="N12" s="3">
         <f t="shared" si="1"/>
         <v>53596</v>
       </c>
-      <c r="K12" s="3">
-        <f t="shared" si="2"/>
+      <c r="O12" s="3">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>227</v>
       </c>
@@ -4319,27 +4422,39 @@
         <v>0.125</v>
       </c>
       <c r="F13">
+        <f t="shared" si="2"/>
+        <v>3.8265306122448967E-2</v>
+      </c>
+      <c r="H13">
         <v>24</v>
       </c>
-      <c r="G13">
+      <c r="I13">
+        <f t="shared" si="6"/>
+        <v>1.3000000000000003</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="K13">
         <v>227</v>
       </c>
-      <c r="H13" s="2">
+      <c r="L13" s="2">
         <v>0.62032407407407408</v>
       </c>
-      <c r="I13" s="1">
+      <c r="M13" s="1">
         <v>42519</v>
       </c>
-      <c r="J13" s="3">
+      <c r="N13" s="3">
         <f t="shared" si="1"/>
         <v>53596</v>
       </c>
-      <c r="K13" s="3">
-        <f t="shared" si="2"/>
+      <c r="O13" s="3">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>359</v>
       </c>
@@ -4357,27 +4472,39 @@
         <v>0.10377358490566038</v>
       </c>
       <c r="F14">
+        <f t="shared" si="2"/>
+        <v>2.1226415094339618E-2</v>
+      </c>
+      <c r="H14">
         <v>31</v>
       </c>
-      <c r="G14">
+      <c r="I14">
+        <f t="shared" si="6"/>
+        <v>1.3600000000000003</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="K14">
         <v>359</v>
       </c>
-      <c r="H14" s="2">
+      <c r="L14" s="2">
         <v>0.62032407407407408</v>
       </c>
-      <c r="I14" s="1">
+      <c r="M14" s="1">
         <v>42519</v>
       </c>
-      <c r="J14" s="3">
+      <c r="N14" s="3">
         <f t="shared" si="1"/>
         <v>53596</v>
       </c>
-      <c r="K14" s="3">
-        <f t="shared" si="2"/>
+      <c r="O14" s="3">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>577</v>
       </c>
@@ -4395,27 +4522,39 @@
         <v>7.5949367088607597E-2</v>
       </c>
       <c r="F15">
+        <f t="shared" si="2"/>
+        <v>2.7824217817052785E-2</v>
+      </c>
+      <c r="H15">
         <v>39</v>
       </c>
-      <c r="G15">
+      <c r="I15">
+        <f t="shared" si="6"/>
+        <v>1.4200000000000004</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="K15">
         <v>577</v>
       </c>
-      <c r="H15" s="2">
+      <c r="L15" s="2">
         <v>0.62032407407407408</v>
       </c>
-      <c r="I15" s="1">
+      <c r="M15" s="1">
         <v>42519</v>
       </c>
-      <c r="J15" s="3">
+      <c r="N15" s="3">
         <f t="shared" si="1"/>
         <v>53596</v>
       </c>
-      <c r="K15" s="3">
-        <f t="shared" si="2"/>
+      <c r="O15" s="3">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>929</v>
       </c>
@@ -4433,27 +4572,39 @@
         <v>6.2761506276150625E-2</v>
       </c>
       <c r="F16">
+        <f t="shared" si="2"/>
+        <v>1.3187860812456972E-2</v>
+      </c>
+      <c r="H16">
         <v>49</v>
       </c>
-      <c r="G16">
+      <c r="I16">
+        <f t="shared" si="6"/>
+        <v>1.4800000000000004</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="K16">
         <v>929</v>
       </c>
-      <c r="H16" s="2">
+      <c r="L16" s="2">
         <v>0.62032407407407408</v>
       </c>
-      <c r="I16" s="1">
+      <c r="M16" s="1">
         <v>42519</v>
       </c>
-      <c r="J16" s="3">
+      <c r="N16" s="3">
         <f t="shared" si="1"/>
         <v>53596</v>
       </c>
-      <c r="K16" s="3">
-        <f t="shared" si="2"/>
+      <c r="O16" s="3">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1499</v>
       </c>
@@ -4471,27 +4622,43 @@
         <v>0.05</v>
       </c>
       <c r="F17">
+        <f t="shared" si="2"/>
+        <v>1.2761506276150622E-2</v>
+      </c>
+      <c r="G17">
+        <f>SUM(F7:F17)</f>
+        <v>0.37857142857142867</v>
+      </c>
+      <c r="H17">
         <v>63</v>
       </c>
-      <c r="G17">
+      <c r="I17">
+        <f t="shared" si="6"/>
+        <v>1.5400000000000005</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="5"/>
+        <v>97</v>
+      </c>
+      <c r="K17">
         <v>1499</v>
       </c>
-      <c r="H17" s="2">
+      <c r="L17" s="2">
         <v>0.62093750000000003</v>
       </c>
-      <c r="I17" s="1">
+      <c r="M17" s="1">
         <v>42519</v>
       </c>
-      <c r="J17" s="3">
+      <c r="N17" s="3">
         <f t="shared" si="1"/>
         <v>53649</v>
       </c>
-      <c r="K17" s="3">
-        <f t="shared" si="2"/>
+      <c r="O17" s="3">
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2423</v>
       </c>
@@ -4509,27 +4676,39 @@
         <v>4.0515653775322284E-2</v>
       </c>
       <c r="F18">
+        <f t="shared" si="2"/>
+        <v>9.4843462246777185E-3</v>
+      </c>
+      <c r="H18">
         <v>80</v>
       </c>
-      <c r="G18">
+      <c r="I18">
+        <f t="shared" si="6"/>
+        <v>1.6000000000000005</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="5"/>
+        <v>142</v>
+      </c>
+      <c r="K18">
         <v>2423</v>
       </c>
-      <c r="H18" s="2">
+      <c r="L18" s="2">
         <v>0.62093750000000003</v>
       </c>
-      <c r="I18" s="1">
+      <c r="M18" s="1">
         <v>42519</v>
       </c>
-      <c r="J18" s="3">
+      <c r="N18" s="3">
         <f t="shared" si="1"/>
         <v>53649</v>
       </c>
-      <c r="K18" s="3">
-        <f t="shared" si="2"/>
+      <c r="O18" s="3">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3919</v>
       </c>
@@ -4547,27 +4726,39 @@
         <v>3.1515151515151517E-2</v>
       </c>
       <c r="F19">
+        <f t="shared" si="2"/>
+        <v>9.0005022601707674E-3</v>
+      </c>
+      <c r="H19">
         <v>101</v>
       </c>
-      <c r="G19">
+      <c r="I19">
+        <f t="shared" si="6"/>
+        <v>1.6600000000000006</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="5"/>
+        <v>208</v>
+      </c>
+      <c r="K19">
         <v>3919</v>
       </c>
-      <c r="H19" s="2">
+      <c r="L19" s="2">
         <v>0.62094907407407407</v>
       </c>
-      <c r="I19" s="1">
+      <c r="M19" s="1">
         <v>42519</v>
       </c>
-      <c r="J19" s="3">
+      <c r="N19" s="3">
         <f t="shared" si="1"/>
         <v>53650</v>
       </c>
-      <c r="K19" s="3">
-        <f t="shared" si="2"/>
+      <c r="O19" s="3">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6337</v>
       </c>
@@ -4585,27 +4776,39 @@
         <v>2.4661893396976928E-2</v>
       </c>
       <c r="F20">
+        <f t="shared" si="2"/>
+        <v>6.8532581181745891E-3</v>
+      </c>
+      <c r="H20">
         <v>129</v>
       </c>
-      <c r="G20">
+      <c r="I20">
+        <f t="shared" si="6"/>
+        <v>1.7200000000000006</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="5"/>
+        <v>305</v>
+      </c>
+      <c r="K20">
         <v>6337</v>
       </c>
-      <c r="H20" s="2">
+      <c r="L20" s="2">
         <v>0.62094907407407407</v>
       </c>
-      <c r="I20" s="1">
+      <c r="M20" s="1">
         <v>42519</v>
       </c>
-      <c r="J20" s="3">
+      <c r="N20" s="3">
         <f t="shared" si="1"/>
         <v>53650</v>
       </c>
-      <c r="K20" s="3">
-        <f t="shared" si="2"/>
+      <c r="O20" s="3">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10253</v>
       </c>
@@ -4623,27 +4826,39 @@
         <v>1.9801980198019802E-2</v>
       </c>
       <c r="F21">
+        <f t="shared" si="2"/>
+        <v>4.8599131989571255E-3</v>
+      </c>
+      <c r="H21">
         <v>164</v>
       </c>
-      <c r="G21">
+      <c r="I21">
+        <f t="shared" si="6"/>
+        <v>1.7800000000000007</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="5"/>
+        <v>448</v>
+      </c>
+      <c r="K21">
         <v>10253</v>
       </c>
-      <c r="H21" s="2">
+      <c r="L21" s="2">
         <v>0.6215046296296296</v>
       </c>
-      <c r="I21" s="1">
+      <c r="M21" s="1">
         <v>42519</v>
       </c>
-      <c r="J21" s="3">
+      <c r="N21" s="3">
         <f t="shared" si="1"/>
         <v>53698</v>
       </c>
-      <c r="K21" s="3">
-        <f t="shared" si="2"/>
+      <c r="O21" s="3">
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16573</v>
       </c>
@@ -4661,27 +4876,39 @@
         <v>1.5635622025832768E-2</v>
       </c>
       <c r="F22">
+        <f t="shared" si="2"/>
+        <v>4.1663581721870339E-3</v>
+      </c>
+      <c r="H22">
         <v>208</v>
       </c>
-      <c r="G22">
+      <c r="I22">
+        <f t="shared" si="6"/>
+        <v>1.8400000000000007</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="5"/>
+        <v>659</v>
+      </c>
+      <c r="K22">
         <v>16573</v>
       </c>
-      <c r="H22" s="2">
+      <c r="L22" s="2">
         <v>0.62151620370370375</v>
       </c>
-      <c r="I22" s="1">
+      <c r="M22" s="1">
         <v>42519</v>
       </c>
-      <c r="J22" s="3">
+      <c r="N22" s="3">
         <f t="shared" si="1"/>
         <v>53699</v>
       </c>
-      <c r="K22" s="3">
-        <f t="shared" si="2"/>
+      <c r="O22" s="3">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>26821</v>
       </c>
@@ -4699,27 +4926,39 @@
         <v>1.2381162944948043E-2</v>
       </c>
       <c r="F23">
+        <f t="shared" si="2"/>
+        <v>3.2544590808847255E-3</v>
+      </c>
+      <c r="H23">
         <v>265</v>
       </c>
-      <c r="G23">
+      <c r="I23">
+        <f t="shared" si="6"/>
+        <v>1.9000000000000008</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="5"/>
+        <v>973</v>
+      </c>
+      <c r="K23">
         <v>26821</v>
       </c>
-      <c r="H23" s="2">
+      <c r="L23" s="2">
         <v>0.62152777777777779</v>
       </c>
-      <c r="I23" s="1">
+      <c r="M23" s="1">
         <v>42519</v>
       </c>
-      <c r="J23" s="3">
+      <c r="N23" s="3">
         <f t="shared" si="1"/>
         <v>53700</v>
       </c>
-      <c r="K23" s="3">
-        <f t="shared" si="2"/>
+      <c r="O23" s="3">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>43391</v>
       </c>
@@ -4737,27 +4976,39 @@
         <v>9.7715188963931592E-3</v>
       </c>
       <c r="F24">
+        <f t="shared" si="2"/>
+        <v>2.6096440485548836E-3</v>
+      </c>
+      <c r="H24">
         <v>337</v>
       </c>
-      <c r="G24">
+      <c r="I24">
+        <f t="shared" si="6"/>
+        <v>1.9600000000000009</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="5"/>
+        <v>1434</v>
+      </c>
+      <c r="K24">
         <v>43391</v>
       </c>
-      <c r="H24" s="2">
+      <c r="L24" s="2">
         <v>0.62156250000000002</v>
       </c>
-      <c r="I24" s="1">
+      <c r="M24" s="1">
         <v>42519</v>
       </c>
-      <c r="J24" s="3">
+      <c r="N24" s="3">
         <f t="shared" si="1"/>
         <v>53703</v>
       </c>
-      <c r="K24" s="3">
-        <f t="shared" si="2"/>
+      <c r="O24" s="3">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>70207</v>
       </c>
@@ -4775,27 +5026,39 @@
         <v>7.6229431997768896E-3</v>
       </c>
       <c r="F25">
+        <f t="shared" si="2"/>
+        <v>2.1485756966162697E-3</v>
+      </c>
+      <c r="H25">
         <v>429</v>
       </c>
-      <c r="G25">
+      <c r="I25">
+        <f t="shared" si="6"/>
+        <v>2.0200000000000009</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="5"/>
+        <v>2120</v>
+      </c>
+      <c r="K25">
         <v>70207</v>
       </c>
-      <c r="H25" s="2">
+      <c r="L25" s="2">
         <v>0.62163194444444447</v>
       </c>
-      <c r="I25" s="1">
+      <c r="M25" s="1">
         <v>42519</v>
       </c>
-      <c r="J25" s="3">
+      <c r="N25" s="3">
         <f t="shared" si="1"/>
         <v>53709</v>
       </c>
-      <c r="K25" s="3">
-        <f t="shared" si="2"/>
+      <c r="O25" s="3">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>113591</v>
       </c>
@@ -4813,27 +5076,39 @@
         <v>6.0070883642698381E-3</v>
       </c>
       <c r="F26">
+        <f t="shared" si="2"/>
+        <v>1.6158548355070515E-3</v>
+      </c>
+      <c r="H26">
         <v>545</v>
       </c>
-      <c r="G26">
+      <c r="I26">
+        <f t="shared" si="6"/>
+        <v>2.080000000000001</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="5"/>
+        <v>3130</v>
+      </c>
+      <c r="K26">
         <v>113591</v>
       </c>
-      <c r="H26" s="2">
+      <c r="L26" s="2">
         <v>0.62178240740740742</v>
       </c>
-      <c r="I26" s="1">
+      <c r="M26" s="1">
         <v>42519</v>
       </c>
-      <c r="J26" s="3">
+      <c r="N26" s="3">
         <f t="shared" si="1"/>
         <v>53722</v>
       </c>
-      <c r="K26" s="3">
-        <f t="shared" si="2"/>
+      <c r="O26" s="3">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>183797</v>
       </c>
@@ -4851,27 +5126,39 @@
         <v>4.8455246734116367E-3</v>
       </c>
       <c r="F27">
+        <f t="shared" si="2"/>
+        <v>1.1615636908582014E-3</v>
+      </c>
+      <c r="H27">
         <v>694</v>
       </c>
-      <c r="G27">
+      <c r="I27">
+        <f t="shared" si="6"/>
+        <v>2.140000000000001</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
+        <v>4618</v>
+      </c>
+      <c r="K27">
         <v>183797</v>
       </c>
-      <c r="H27" s="2">
+      <c r="L27" s="2">
         <v>0.62201388888888887</v>
       </c>
-      <c r="I27" s="1">
+      <c r="M27" s="1">
         <v>42519</v>
       </c>
-      <c r="J27" s="3">
+      <c r="N27" s="3">
         <f t="shared" si="1"/>
         <v>53742</v>
       </c>
-      <c r="K27" s="3">
-        <f t="shared" si="2"/>
+      <c r="O27" s="3">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>297377</v>
       </c>
@@ -4889,27 +5176,43 @@
         <v>3.7904291663549538E-3</v>
       </c>
       <c r="F28">
+        <f t="shared" si="2"/>
+        <v>1.0550955070566829E-3</v>
+      </c>
+      <c r="G28">
+        <f>SUM(F18:F28)</f>
+        <v>4.6209570833645047E-2</v>
+      </c>
+      <c r="H28">
         <v>882</v>
       </c>
-      <c r="G28">
+      <c r="I28">
+        <f t="shared" si="6"/>
+        <v>2.2000000000000011</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>6818</v>
+      </c>
+      <c r="K28">
         <v>297377</v>
       </c>
-      <c r="H28" s="2">
+      <c r="L28" s="2">
         <v>0.62245370370370368</v>
       </c>
-      <c r="I28" s="1">
+      <c r="M28" s="1">
         <v>42519</v>
       </c>
-      <c r="J28" s="3">
+      <c r="N28" s="3">
         <f t="shared" si="1"/>
         <v>53780</v>
       </c>
-      <c r="K28" s="3">
-        <f t="shared" si="2"/>
+      <c r="O28" s="3">
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>481171</v>
       </c>
@@ -4927,27 +5230,39 @@
         <v>2.9987171263630534E-3</v>
       </c>
       <c r="F29">
+        <f t="shared" si="2"/>
+        <v>7.9171203999190039E-4</v>
+      </c>
+      <c r="H29">
         <v>1122</v>
       </c>
-      <c r="G29">
+      <c r="I29">
+        <f t="shared" si="6"/>
+        <v>2.2600000000000011</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="5"/>
+        <v>10040</v>
+      </c>
+      <c r="K29">
         <v>481171</v>
       </c>
-      <c r="H29" s="2">
+      <c r="L29" s="2">
         <v>0.62331018518518522</v>
       </c>
-      <c r="I29" s="1">
+      <c r="M29" s="1">
         <v>42519</v>
       </c>
-      <c r="J29" s="3">
+      <c r="N29" s="3">
         <f t="shared" si="1"/>
         <v>53854</v>
       </c>
-      <c r="K29" s="3">
-        <f t="shared" si="2"/>
+      <c r="O29" s="3">
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>778541</v>
       </c>
@@ -4965,27 +5280,39 @@
         <v>2.3156486389131889E-3</v>
       </c>
       <c r="F30">
+        <f t="shared" si="2"/>
+        <v>6.8306848744986454E-4</v>
+      </c>
+      <c r="H30">
         <v>1428</v>
       </c>
-      <c r="G30">
+      <c r="I30">
+        <f t="shared" si="6"/>
+        <v>2.3200000000000012</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="5"/>
+        <v>14770</v>
+      </c>
+      <c r="K30">
         <v>778541</v>
       </c>
-      <c r="H30" s="2">
+      <c r="L30" s="2">
         <v>0.62494212962962969</v>
       </c>
-      <c r="I30" s="1">
+      <c r="M30" s="1">
         <v>42519</v>
       </c>
-      <c r="J30" s="3">
+      <c r="N30" s="3">
         <f t="shared" si="1"/>
         <v>53995</v>
       </c>
-      <c r="K30" s="3">
-        <f t="shared" si="2"/>
+      <c r="O30" s="3">
+        <f t="shared" si="4"/>
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1259701</v>
       </c>
@@ -5003,27 +5330,39 @@
         <v>1.8471119085943478E-3</v>
       </c>
       <c r="F31">
+        <f t="shared" si="2"/>
+        <v>4.6853673031884108E-4</v>
+      </c>
+      <c r="H31">
         <v>1816</v>
       </c>
-      <c r="G31">
+      <c r="I31">
+        <f t="shared" si="6"/>
+        <v>2.3800000000000012</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="5"/>
+        <v>21677</v>
+      </c>
+      <c r="K31">
         <v>1259701</v>
       </c>
-      <c r="H31" s="2">
+      <c r="L31" s="2">
         <v>0.62798611111111113</v>
       </c>
-      <c r="I31" s="1">
+      <c r="M31" s="1">
         <v>42519</v>
       </c>
-      <c r="J31" s="3">
+      <c r="N31" s="3">
         <f t="shared" si="1"/>
         <v>54258</v>
       </c>
-      <c r="K31" s="3">
-        <f t="shared" si="2"/>
+      <c r="O31" s="3">
+        <f t="shared" si="4"/>
         <v>263</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2038217</v>
       </c>
@@ -5041,27 +5380,39 @@
         <v>1.448595959979897E-3</v>
       </c>
       <c r="F32">
+        <f t="shared" si="2"/>
+        <v>3.9851594861445077E-4</v>
+      </c>
+      <c r="H32">
         <v>2310</v>
       </c>
-      <c r="G32">
+      <c r="I32">
+        <f t="shared" si="6"/>
+        <v>2.4400000000000013</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="5"/>
+        <v>31729</v>
+      </c>
+      <c r="K32">
         <v>2038217</v>
       </c>
-      <c r="H32" s="2">
+      <c r="L32" s="2">
         <v>0.63369212962962962</v>
       </c>
-      <c r="I32" s="1">
+      <c r="M32" s="1">
         <v>42519</v>
       </c>
-      <c r="J32" s="3">
+      <c r="N32" s="3">
         <f t="shared" si="1"/>
         <v>54751</v>
       </c>
-      <c r="K32" s="3">
-        <f t="shared" si="2"/>
+      <c r="O32" s="3">
+        <f t="shared" si="4"/>
         <v>493</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3297913</v>
       </c>
@@ -5079,27 +5430,39 @@
         <v>1.1425021607605877E-3</v>
       </c>
       <c r="F33">
+        <f t="shared" si="2"/>
+        <v>3.0609379921930934E-4</v>
+      </c>
+      <c r="H33">
         <v>2938</v>
       </c>
-      <c r="G33">
+      <c r="I33">
+        <f t="shared" si="6"/>
+        <v>2.5000000000000013</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="5"/>
+        <v>46280</v>
+      </c>
+      <c r="K33">
         <v>3297913</v>
       </c>
-      <c r="H33" s="2">
+      <c r="L33" s="2">
         <v>0.64124999999999999</v>
       </c>
-      <c r="I33" s="1">
+      <c r="M33" s="1">
         <v>42519</v>
       </c>
-      <c r="J33" s="3">
+      <c r="N33" s="3">
         <f t="shared" si="1"/>
         <v>55404</v>
       </c>
-      <c r="K33" s="3">
-        <f t="shared" si="2"/>
+      <c r="O33" s="3">
+        <f t="shared" si="4"/>
         <v>653</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5336129</v>
       </c>
@@ -5117,27 +5480,39 @@
         <v>8.9894231930569214E-4</v>
       </c>
       <c r="F34">
+        <f t="shared" si="2"/>
+        <v>2.4355984145489552E-4</v>
+      </c>
+      <c r="H34">
         <v>3738</v>
       </c>
-      <c r="G34">
+      <c r="I34">
+        <f t="shared" si="6"/>
+        <v>2.5600000000000014</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="5"/>
+        <v>67230</v>
+      </c>
+      <c r="K34">
         <v>5336129</v>
       </c>
-      <c r="H34" s="2">
+      <c r="L34" s="2">
         <v>0.65187499999999998</v>
       </c>
-      <c r="I34" s="1">
+      <c r="M34" s="1">
         <v>42519</v>
       </c>
-      <c r="J34" s="3">
+      <c r="N34" s="3">
         <f t="shared" si="1"/>
         <v>56322</v>
       </c>
-      <c r="K34" s="3">
-        <f t="shared" si="2"/>
+      <c r="O34" s="3">
+        <f t="shared" si="4"/>
         <v>918</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>8633983</v>
       </c>
@@ -5155,24 +5530,46 @@
         <v>7.0461999513371813E-4</v>
       </c>
       <c r="F35">
+        <f t="shared" si="2"/>
+        <v>1.9432232417197401E-4</v>
+      </c>
+      <c r="G35">
+        <f>SUM(F29:F35)</f>
+        <v>3.0858091712212352E-3</v>
+      </c>
+      <c r="H35">
         <v>4754</v>
       </c>
-      <c r="G35">
+      <c r="I35">
+        <f t="shared" si="6"/>
+        <v>2.6200000000000014</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="5"/>
+        <v>97188</v>
+      </c>
+      <c r="K35">
         <v>8633983</v>
       </c>
-      <c r="H35" s="2">
+      <c r="L35" s="2">
         <v>0.67302083333333329</v>
       </c>
-      <c r="I35" s="1">
+      <c r="M35" s="1">
         <v>42519</v>
       </c>
-      <c r="J35" s="3">
+      <c r="N35" s="3">
         <f t="shared" si="1"/>
         <v>58149</v>
       </c>
-      <c r="K35" s="3">
-        <f t="shared" si="2"/>
+      <c r="O35" s="3">
+        <f t="shared" si="4"/>
         <v>1827</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <f>AVERAGE(F3:F35)</f>
+        <v>1.5130163030450493E-2</v>
       </c>
     </row>
   </sheetData>

--- a/logFile_analysis 29052016.xlsx
+++ b/logFile_analysis 29052016.xlsx
@@ -3843,7 +3843,7 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I2" sqref="I2:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3995,7 +3995,7 @@
         <v>3</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I6" si="3">I5-0.06</f>
+        <f t="shared" ref="I4:I35" si="3">I5-0.06</f>
         <v>0.75999999999999979</v>
       </c>
       <c r="K4">
